--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2099719997849161</v>
+        <v>0.2140042578494322</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2099719997849161, 'ngram_match_score': 0.0841736823817402, 'weighted_ngram_match_score': 0.14044947283331718, 'syntax_match_score': 0.42494226327944573, 'dataflow_match_score': 0.19032258064516128}</t>
+          <t>{'codebleu': 0.21400425784943222, 'ngram_match_score': 0.0841736823817402, 'weighted_ngram_match_score': 0.14044947283331718, 'syntax_match_score': 0.42494226327944573, 'dataflow_match_score': 0.2064516129032258}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
